--- a/src/test/resources/example/table.xlsx
+++ b/src/test/resources/example/table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
+    <workbookView xWindow="240" yWindow="588" windowWidth="14808" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,6 +525,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -572,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,7 +610,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,23 +825,23 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -864,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,7 +887,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,7 +907,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,7 +927,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -944,7 +947,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -964,7 +967,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -984,7 +987,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1004,7 +1007,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1024,7 +1027,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>29</v>
       </c>
@@ -1044,7 +1047,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
@@ -1064,7 +1067,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>33</v>
       </c>
@@ -1084,7 +1087,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>42</v>
       </c>
@@ -1104,7 +1107,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
@@ -1124,7 +1127,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
@@ -1144,7 +1147,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -1164,7 +1167,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>43</v>
       </c>
@@ -1184,7 +1187,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
@@ -1204,7 +1207,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -1228,7 +1231,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>63</v>
       </c>
@@ -1252,7 +1255,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>65</v>
       </c>
@@ -1272,7 +1275,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
@@ -1292,7 +1295,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
@@ -1312,7 +1315,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>75</v>
       </c>
@@ -1332,7 +1335,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>77</v>
       </c>
@@ -1352,7 +1355,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>81</v>
       </c>
@@ -1372,7 +1375,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1382,7 +1385,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1392,7 +1395,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1402,7 +1405,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1412,7 +1415,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1422,7 +1425,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1432,7 +1435,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1442,7 +1445,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1452,7 +1455,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1462,7 +1465,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1472,7 +1475,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1482,7 +1485,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1492,7 +1495,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1502,7 +1505,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1512,7 +1515,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1522,7 +1525,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1532,7 +1535,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1542,7 +1545,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1552,7 +1555,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1562,7 +1565,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1572,7 +1575,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1582,7 +1585,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1604,7 +1607,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1616,7 +1619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
